--- a/src/assets/excel/crispier_contribution_template.xlsx
+++ b/src/assets/excel/crispier_contribution_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonza\OneDrive\Uniovi\TFG\Programming\Crispier\frontend\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37ABC21E-117C-4BFA-A6CA-09A26CE85561}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D7B34-0096-4568-97AC-0CA686A82893}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
     <col min="1" max="1" width="29.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
